--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\z_har\OneDrive\Documents\GitHub\codex_vs_gpt3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CE88C50-6F3F-4744-BE40-0E0CE31E041A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81B85899-4E40-4A94-BAFE-B5658A029D52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
   <si>
     <t>Task</t>
   </si>
@@ -99,9 +99,6 @@
   </si>
   <si>
     <t>N/A</t>
-  </si>
-  <si>
-    <t>running</t>
   </si>
   <si>
     <t>ANLI</t>
@@ -2433,11 +2430,14 @@
                 <c:pt idx="5">
                   <c:v>0.72599999999999998</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.35</c:v>
+                </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>0.55700000000000005</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>8.1000000000000003E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3191,7 +3191,7 @@
                   <c:v>0.73499999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.17799999999999999</c:v>
+                  <c:v>0.378</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.54900000000000004</c:v>
@@ -6709,8 +6709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="L105" sqref="L105"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -6977,7 +6977,9 @@
       <c r="D7" s="1">
         <v>0.72599999999999998</v>
       </c>
-      <c r="E7" s="1"/>
+      <c r="E7" s="1">
+        <v>0.5</v>
+      </c>
       <c r="F7" s="1">
         <v>0.73499999999999999</v>
       </c>
@@ -7013,10 +7015,12 @@
       <c r="C8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="1"/>
+      <c r="D8" s="1">
+        <v>0.35</v>
+      </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1">
-        <v>0.17799999999999999</v>
+        <v>0.378</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>20</v>
@@ -7042,7 +7046,7 @@
     </row>
     <row r="9" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A9" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" s="1">
         <v>0.504</v>
@@ -7050,10 +7054,12 @@
       <c r="C9" s="1">
         <v>0.33300000000000002</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="1"/>
+      <c r="D9" s="1">
+        <v>0.55700000000000005</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.36</v>
+      </c>
       <c r="F9" s="1">
         <v>0.54900000000000004</v>
       </c>
@@ -7081,7 +7087,7 @@
     </row>
     <row r="10" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A10" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10" s="1">
         <v>0.125</v>
@@ -7089,10 +7095,12 @@
       <c r="C10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="1"/>
+      <c r="D10" s="1">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="F10" s="1">
         <v>0.14899999999999999</v>
       </c>
@@ -7120,7 +7128,7 @@
     </row>
     <row r="11" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A11" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" s="1">
         <v>0.67</v>
@@ -7157,7 +7165,7 @@
     </row>
     <row r="12" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B12" s="1">
         <v>0.36</v>
@@ -7194,7 +7202,7 @@
     </row>
     <row r="13" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A13" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B13" s="1">
         <v>0.34899999999999998</v>
@@ -7223,7 +7231,7 @@
     </row>
     <row r="14" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A14" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
